--- a/templates/dataplant/Imaging_extraction.xlsx
+++ b/templates/dataplant/Imaging_extraction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="211">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -458,7 +458,7 @@
     <t/>
   </si>
   <si>
-    <t>remove leaflets form shoot</t>
+    <t>remove leaflets from shoot</t>
   </si>
   <si>
     <t>shoot without leaves</t>
@@ -506,12 +506,12 @@
     <t>haploid deletion library</t>
   </si>
   <si>
-    <t>Ambion</t>
-  </si>
-  <si>
     <t>Bioneer haploid deletion library v.2 modified to generate a GFP-tubulin expressing library (Dixon et al., 2008).</t>
   </si>
   <si>
+    <t xml:space="preserve">Ambion		</t>
+  </si>
+  <si>
     <t>JL_120731_S6A</t>
   </si>
   <si>
@@ -569,7 +569,7 @@
     <t>GFP:endogenous alpha tubulin 2;Cascade blue:growth media</t>
   </si>
   <si>
-    <t>84240</t>
+    <t>PSORS1C3</t>
   </si>
   <si>
     <t>secondary screen</t>
@@ -578,19 +578,16 @@
     <t>compound library</t>
   </si>
   <si>
+    <t>LOPAC-1280 compound library</t>
+  </si>
+  <si>
     <t>Sigma</t>
   </si>
   <si>
-    <t>LOPAC-1280 compound library</t>
-  </si>
-  <si>
     <t>1921</t>
   </si>
   <si>
     <t>C3</t>
-  </si>
-  <si>
-    <t>PSORS1C3</t>
   </si>
   <si>
     <t>s20068</t>
@@ -2242,124 +2239,124 @@
         <v>147</v>
       </c>
       <c r="BJ3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM3" t="s">
         <v>192</v>
       </c>
-      <c r="BK3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP3" t="s">
         <v>193</v>
       </c>
-      <c r="BN3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS3" t="s">
         <v>194</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS3" t="s">
+      <c r="BT3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY3" t="s">
         <v>195</v>
       </c>
-      <c r="BT3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY3" t="s">
+      <c r="BZ3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB3" t="s">
         <v>196</v>
       </c>
-      <c r="BZ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB3" t="s">
+      <c r="CC3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE3" t="s">
         <v>197</v>
       </c>
-      <c r="CC3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE3" t="s">
+      <c r="CF3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CN3" t="s">
         <v>198</v>
       </c>
-      <c r="CF3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN3" t="s">
+      <c r="CO3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CQ3" t="s">
         <v>199</v>
       </c>
-      <c r="CO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ3" t="s">
+      <c r="CR3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CT3" t="s">
         <v>200</v>
       </c>
-      <c r="CR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT3" t="s">
+      <c r="CU3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CW3" t="s">
         <v>201</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>202</v>
       </c>
       <c r="CX3" t="s">
         <v>147</v>
@@ -2511,178 +2508,178 @@
         <v>147</v>
       </c>
       <c r="AR4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU4" t="s">
         <v>203</v>
       </c>
-      <c r="AS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE4" t="s">
         <v>204</v>
       </c>
-      <c r="AV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE4" t="s">
+      <c r="CF4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CQ4" t="s">
         <v>205</v>
       </c>
-      <c r="CF4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ4" t="s">
+      <c r="CR4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CT4" t="s">
         <v>206</v>
       </c>
-      <c r="CR4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT4" t="s">
+      <c r="CU4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CW4" t="s">
         <v>207</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>208</v>
       </c>
       <c r="CX4" t="s">
         <v>147</v>
@@ -2843,160 +2840,160 @@
         <v>147</v>
       </c>
       <c r="AU5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CT5" t="s">
         <v>209</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>210</v>
       </c>
       <c r="CU5" t="s">
         <v>147</v>
@@ -3319,7 +3316,7 @@
         <v>147</v>
       </c>
       <c r="CT6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CU6" t="s">
         <v>147</v>

--- a/templates/dataplant/Imaging_extraction.xlsx
+++ b/templates/dataplant/Imaging_extraction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="181">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Description</t>
@@ -164,13 +164,13 @@
     <t>Term Accession Number (MS:1001814)</t>
   </si>
   <si>
-    <t>Parameter [antibody]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000117)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000117)</t>
+    <t>Component [antibody]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0000264)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0000264)</t>
   </si>
   <si>
     <t>Parameter [staining]</t>
@@ -218,7 +218,7 @@
     <t>Term Accession Number (DPBO:0000026)</t>
   </si>
   <si>
-    <t>Parameter [microscope slide]</t>
+    <t>Component [microscope slide]</t>
   </si>
   <si>
     <t>Term Source REF (OBI:0400170)</t>
@@ -227,7 +227,7 @@
     <t>Term Accession Number (OBI:0400170)</t>
   </si>
   <si>
-    <t>Parameter [Cover Slip]</t>
+    <t>Component [Cover Slip]</t>
   </si>
   <si>
     <t>Term Source REF (NCIT:C126370)</t>
@@ -555,96 +555,6 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>extract archargonia from gametophyte</t>
-  </si>
-  <si>
-    <t>antibody target</t>
-  </si>
-  <si>
-    <t>Alexa Fluor 546 conjugated secondary antibody</t>
-  </si>
-  <si>
-    <t>GFP:endogenous alpha tubulin 2;Cascade blue:growth media</t>
-  </si>
-  <si>
-    <t>PSORS1C3</t>
-  </si>
-  <si>
-    <t>secondary screen</t>
-  </si>
-  <si>
-    <t>compound library</t>
-  </si>
-  <si>
-    <t>LOPAC-1280 compound library</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>1921</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>s20068</t>
-  </si>
-  <si>
-    <t>CGGAAGCAGUUCCAACUUUtt</t>
-  </si>
-  <si>
-    <t>AAAGUUGGAACUGCUUCCGtt</t>
-  </si>
-  <si>
-    <t>N-Acetyl-L-Cysteine</t>
-  </si>
-  <si>
-    <t>78955</t>
-  </si>
-  <si>
-    <t>Glutamate</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>positive control</t>
-  </si>
-  <si>
-    <t>gives strong phenotype</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>validation screen</t>
-  </si>
-  <si>
-    <t>siRNA library</t>
-  </si>
-  <si>
-    <t>6-Methoxy-1,2,3,4-tetrahydro-9H-pyrido[3,4b] indole</t>
-  </si>
-  <si>
-    <t>negative control</t>
-  </si>
-  <si>
-    <t>wild type</t>
-  </si>
-  <si>
-    <t>no cells</t>
-  </si>
-  <si>
-    <t>HA-Flag protein fusion library</t>
-  </si>
-  <si>
-    <t>non-targeting siRNA</t>
-  </si>
-  <si>
-    <t>no treatment</t>
   </si>
 </sst>
 </file>
@@ -700,8 +610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:DC6" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:DC6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:DC2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:DC2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -821,9 +731,9 @@
     <tableColumn id="8" name="Parameter [generic experimental condition]" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Source REF (MS:1001814)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (MS:1001814)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [antibody]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:1000117)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:1000117)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Component [antibody]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (EFO:0000264)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (EFO:0000264)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Parameter [staining]" totalsRowFunction="none"/>
     <tableColumn id="15" name="Term Source REF (OBI:0302887)" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Accession Number (OBI:0302887)" totalsRowFunction="none"/>
@@ -839,10 +749,10 @@
     <tableColumn id="26" name="Parameter [genome reference sequence]" totalsRowFunction="none"/>
     <tableColumn id="27" name="Term Source REF (DPBO:0000026)" totalsRowFunction="none"/>
     <tableColumn id="28" name="Term Accession Number (DPBO:0000026)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [microscope slide]" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Component [microscope slide]" totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Source REF (OBI:0400170)" totalsRowFunction="none"/>
     <tableColumn id="31" name="Term Accession Number (OBI:0400170)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [Cover Slip]" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Component [Cover Slip]" totalsRowFunction="none"/>
     <tableColumn id="33" name="Term Source REF (NCIT:C126370)" totalsRowFunction="none"/>
     <tableColumn id="34" name="Term Accession Number (NCIT:C126370)" totalsRowFunction="none"/>
     <tableColumn id="35" name="Parameter [liquid layer]" totalsRowFunction="none"/>
@@ -1405,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC6"/>
+  <dimension ref="A1:DC2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:107" x14ac:dyDescent="0.25">
@@ -2051,1298 +1961,6 @@
         <v>147</v>
       </c>
       <c r="DC2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O3" t="s">
-        <v>147</v>
-      </c>
-      <c r="P3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R3" t="s">
-        <v>147</v>
-      </c>
-      <c r="S3" t="s">
-        <v>147</v>
-      </c>
-      <c r="T3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U3" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" t="s">
-        <v>147</v>
-      </c>
-      <c r="W3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>195</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>196</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>197</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>201</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>147</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>147</v>
-      </c>
-      <c r="R4" t="s">
-        <v>147</v>
-      </c>
-      <c r="S4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T4" t="s">
-        <v>147</v>
-      </c>
-      <c r="U4" t="s">
-        <v>147</v>
-      </c>
-      <c r="V4" t="s">
-        <v>147</v>
-      </c>
-      <c r="W4" t="s">
-        <v>147</v>
-      </c>
-      <c r="X4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>204</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>205</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>206</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>207</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>147</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>147</v>
-      </c>
-      <c r="R5" t="s">
-        <v>147</v>
-      </c>
-      <c r="S5" t="s">
-        <v>147</v>
-      </c>
-      <c r="T5" t="s">
-        <v>147</v>
-      </c>
-      <c r="U5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V5" t="s">
-        <v>147</v>
-      </c>
-      <c r="W5" t="s">
-        <v>147</v>
-      </c>
-      <c r="X5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>209</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>147</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N6" t="s">
-        <v>147</v>
-      </c>
-      <c r="O6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>147</v>
-      </c>
-      <c r="R6" t="s">
-        <v>147</v>
-      </c>
-      <c r="S6" t="s">
-        <v>147</v>
-      </c>
-      <c r="T6" t="s">
-        <v>147</v>
-      </c>
-      <c r="U6" t="s">
-        <v>147</v>
-      </c>
-      <c r="V6" t="s">
-        <v>147</v>
-      </c>
-      <c r="W6" t="s">
-        <v>147</v>
-      </c>
-      <c r="X6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>210</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>147</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>147</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>147</v>
-      </c>
-      <c r="DC6" t="s">
         <v>147</v>
       </c>
     </row>

--- a/templates/dataplant/Imaging_extraction.xlsx
+++ b/templates/dataplant/Imaging_extraction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.5</t>
   </si>
   <si>
     <t>Description</t>
@@ -236,13 +236,13 @@
     <t>Term Accession Number (NCIT:C126370)</t>
   </si>
   <si>
-    <t>Parameter [liquid layer]</t>
-  </si>
-  <si>
-    <t>Term Source REF (ENVO:01001273)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (ENVO:01001273)</t>
+    <t>Parameter [Microscope slide mounting medium (substance)]</t>
+  </si>
+  <si>
+    <t>Term Source REF (SNOMED:430862008)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (SNOMED:430862008)</t>
   </si>
   <si>
     <t>Parameter [material fixation]</t>
@@ -491,7 +491,13 @@
     <t>BRAND® L × W 18 mm × 18 mm, square;  Sigma-Aldrich</t>
   </si>
   <si>
-    <t>water</t>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C65147</t>
   </si>
   <si>
     <t>50% v/v ethanol, 3.7% v/v formaldehyde, 5% v/v acetic acid</t>
@@ -755,9 +761,9 @@
     <tableColumn id="32" name="Component [Cover Slip]" totalsRowFunction="none"/>
     <tableColumn id="33" name="Term Source REF (NCIT:C126370)" totalsRowFunction="none"/>
     <tableColumn id="34" name="Term Accession Number (NCIT:C126370)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Parameter [liquid layer]" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (ENVO:01001273)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (ENVO:01001273)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Parameter [Microscope slide mounting medium (substance)]" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Term Source REF (SNOMED:430862008)" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Term Accession Number (SNOMED:430862008)" totalsRowFunction="none"/>
     <tableColumn id="38" name="Parameter [material fixation]" totalsRowFunction="none"/>
     <tableColumn id="39" name="Term Source REF (DPBO:1000144)" totalsRowFunction="none"/>
     <tableColumn id="40" name="Term Accession Number (DPBO:1000144)" totalsRowFunction="none"/>
@@ -1748,13 +1754,13 @@
         <v>159</v>
       </c>
       <c r="AJ2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AK2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="AL2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AM2" t="s">
         <v>147</v>
@@ -1763,7 +1769,7 @@
         <v>147</v>
       </c>
       <c r="AO2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AP2" t="s">
         <v>147</v>
@@ -1772,7 +1778,7 @@
         <v>147</v>
       </c>
       <c r="AR2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AS2" t="s">
         <v>147</v>
@@ -1781,7 +1787,7 @@
         <v>147</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AV2" t="s">
         <v>147</v>
@@ -1790,7 +1796,7 @@
         <v>147</v>
       </c>
       <c r="AX2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AY2" t="s">
         <v>147</v>
@@ -1799,7 +1805,7 @@
         <v>147</v>
       </c>
       <c r="BA2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BB2" t="s">
         <v>147</v>
@@ -1808,7 +1814,7 @@
         <v>147</v>
       </c>
       <c r="BD2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BE2" t="s">
         <v>147</v>
@@ -1817,7 +1823,7 @@
         <v>147</v>
       </c>
       <c r="BG2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BH2" t="s">
         <v>147</v>
@@ -1826,7 +1832,7 @@
         <v>147</v>
       </c>
       <c r="BJ2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BK2" t="s">
         <v>147</v>
@@ -1835,7 +1841,7 @@
         <v>147</v>
       </c>
       <c r="BM2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BN2" t="s">
         <v>147</v>
@@ -1844,7 +1850,7 @@
         <v>147</v>
       </c>
       <c r="BP2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BQ2" t="s">
         <v>147</v>
@@ -1853,7 +1859,7 @@
         <v>147</v>
       </c>
       <c r="BS2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BT2" t="s">
         <v>147</v>
@@ -1871,7 +1877,7 @@
         <v>147</v>
       </c>
       <c r="BY2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BZ2" t="s">
         <v>147</v>
@@ -1880,7 +1886,7 @@
         <v>147</v>
       </c>
       <c r="CB2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="CC2" t="s">
         <v>147</v>
@@ -1889,7 +1895,7 @@
         <v>147</v>
       </c>
       <c r="CE2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CF2" t="s">
         <v>147</v>
@@ -1898,7 +1904,7 @@
         <v>147</v>
       </c>
       <c r="CH2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CI2" t="s">
         <v>147</v>
@@ -1907,7 +1913,7 @@
         <v>147</v>
       </c>
       <c r="CK2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CL2" t="s">
         <v>147</v>
@@ -1916,7 +1922,7 @@
         <v>147</v>
       </c>
       <c r="CN2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CO2" t="s">
         <v>147</v>
@@ -1925,7 +1931,7 @@
         <v>147</v>
       </c>
       <c r="CQ2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CR2" t="s">
         <v>147</v>
@@ -1934,7 +1940,7 @@
         <v>147</v>
       </c>
       <c r="CT2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CU2" t="s">
         <v>147</v>
@@ -1943,7 +1949,7 @@
         <v>147</v>
       </c>
       <c r="CW2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CX2" t="s">
         <v>147</v>
